--- a/Tables/Formatted/Statistics Pivot - Sample.xlsx
+++ b/Tables/Formatted/Statistics Pivot - Sample.xlsx
@@ -419,12 +419,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="1"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -495,8 +489,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.749992370372631"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="16">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -683,6 +683,37 @@
       <bottom style="thick">
         <color auto="1"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -730,7 +761,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -741,88 +772,91 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="34" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="35" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="36" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="37" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="38" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="41" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="42" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="43" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="44" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="39" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="40" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="34" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="35" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="36" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="37" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="38" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="41" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="42" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="43" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="44" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="39" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="40" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="45" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="45" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="45" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="33" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="33" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="33" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="45" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="34" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="35" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="36" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="37" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="38" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="39" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="42" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="43" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="44" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="45" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="40" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="41" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="34" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="35" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="36" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="37" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="38" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="39" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="42" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="43" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="44" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="45" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="40" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="41" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="45" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1158,7 +1192,7 @@
   <dimension ref="B2:N13"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1171,453 +1205,453 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:14" s="2" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="H2" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="I2" s="5" t="s">
+      <c r="I2" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="J2" s="5" t="s">
+      <c r="J2" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="K2" s="5" t="s">
+      <c r="K2" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="L2" s="5" t="s">
+      <c r="L2" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="M2" s="5" t="s">
+      <c r="M2" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="N2" s="6" t="s">
+      <c r="N2" s="27" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="3" spans="2:14" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="8">
+      <c r="B3" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="31">
         <v>151.18299999999999</v>
       </c>
-      <c r="D3" s="9">
-        <v>0</v>
-      </c>
-      <c r="E3" s="10">
+      <c r="D3" s="4">
+        <v>0</v>
+      </c>
+      <c r="E3" s="5">
         <v>183.29650000000001</v>
       </c>
-      <c r="F3" s="11">
-        <v>0</v>
-      </c>
-      <c r="G3" s="12">
+      <c r="F3" s="6">
+        <v>0</v>
+      </c>
+      <c r="G3" s="7">
         <v>169.31129999999999</v>
       </c>
-      <c r="H3" s="13">
-        <v>0</v>
-      </c>
-      <c r="I3" s="14">
+      <c r="H3" s="8">
+        <v>0</v>
+      </c>
+      <c r="I3" s="9">
         <v>164.30770000000001</v>
       </c>
-      <c r="J3" s="15">
-        <v>0</v>
-      </c>
-      <c r="K3" s="16">
+      <c r="J3" s="10">
+        <v>0</v>
+      </c>
+      <c r="K3" s="11">
         <v>183.65309999999999</v>
       </c>
-      <c r="L3" s="17">
-        <v>0</v>
-      </c>
-      <c r="M3" s="18">
+      <c r="L3" s="12">
+        <v>0</v>
+      </c>
+      <c r="M3" s="13">
         <v>177.9794</v>
       </c>
-      <c r="N3" s="19">
+      <c r="N3" s="14">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="2:14" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="8">
+      <c r="C4" s="31">
         <v>172.89269999999999</v>
       </c>
-      <c r="D4" s="9">
-        <v>0</v>
-      </c>
-      <c r="E4" s="10">
+      <c r="D4" s="4">
+        <v>0</v>
+      </c>
+      <c r="E4" s="5">
         <v>187.05449999999999</v>
       </c>
-      <c r="F4" s="11">
-        <v>0</v>
-      </c>
-      <c r="G4" s="12">
+      <c r="F4" s="6">
+        <v>0</v>
+      </c>
+      <c r="G4" s="7">
         <v>165.80250000000001</v>
       </c>
-      <c r="H4" s="13">
-        <v>0</v>
-      </c>
-      <c r="I4" s="14">
+      <c r="H4" s="8">
+        <v>0</v>
+      </c>
+      <c r="I4" s="9">
         <v>173.49289999999999</v>
       </c>
-      <c r="J4" s="15">
-        <v>0</v>
-      </c>
-      <c r="K4" s="16">
+      <c r="J4" s="10">
+        <v>0</v>
+      </c>
+      <c r="K4" s="11">
         <v>228.33949999999999</v>
       </c>
-      <c r="L4" s="17">
-        <v>0</v>
-      </c>
-      <c r="M4" s="18">
+      <c r="L4" s="12">
+        <v>0</v>
+      </c>
+      <c r="M4" s="13">
         <v>194.04939999999999</v>
       </c>
-      <c r="N4" s="19">
+      <c r="N4" s="14">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="2:14" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="8">
+      <c r="C5" s="31">
         <v>194.35390000000001</v>
       </c>
-      <c r="D5" s="9">
+      <c r="D5" s="4">
         <v>1E-4</v>
       </c>
-      <c r="E5" s="10">
+      <c r="E5" s="5">
         <v>170.7029</v>
       </c>
-      <c r="F5" s="11">
-        <v>0</v>
-      </c>
-      <c r="G5" s="12">
+      <c r="F5" s="6">
+        <v>0</v>
+      </c>
+      <c r="G5" s="7">
         <v>173.62260000000001</v>
       </c>
-      <c r="H5" s="13">
-        <v>0</v>
-      </c>
-      <c r="I5" s="14">
+      <c r="H5" s="8">
+        <v>0</v>
+      </c>
+      <c r="I5" s="9">
         <v>155.04920000000001</v>
       </c>
-      <c r="J5" s="15">
-        <v>0</v>
-      </c>
-      <c r="K5" s="16">
+      <c r="J5" s="10">
+        <v>0</v>
+      </c>
+      <c r="K5" s="11">
         <v>260.70249999999999</v>
       </c>
-      <c r="L5" s="17">
-        <v>0</v>
-      </c>
-      <c r="M5" s="18">
+      <c r="L5" s="12">
+        <v>0</v>
+      </c>
+      <c r="M5" s="13">
         <v>188.61250000000001</v>
       </c>
-      <c r="N5" s="19">
+      <c r="N5" s="14">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="2:14" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="8">
+      <c r="C6" s="31">
         <v>193.19220000000001</v>
       </c>
-      <c r="D6" s="9">
+      <c r="D6" s="4">
         <v>1E-4</v>
       </c>
-      <c r="E6" s="10">
+      <c r="E6" s="5">
         <v>177.24950000000001</v>
       </c>
-      <c r="F6" s="11">
-        <v>0</v>
-      </c>
-      <c r="G6" s="12">
+      <c r="F6" s="6">
+        <v>0</v>
+      </c>
+      <c r="G6" s="7">
         <v>209.77979999999999</v>
       </c>
-      <c r="H6" s="13">
-        <v>0</v>
-      </c>
-      <c r="I6" s="14">
+      <c r="H6" s="8">
+        <v>0</v>
+      </c>
+      <c r="I6" s="9">
         <v>136.67269999999999</v>
       </c>
-      <c r="J6" s="15">
-        <v>0</v>
-      </c>
-      <c r="K6" s="16">
+      <c r="J6" s="10">
+        <v>0</v>
+      </c>
+      <c r="K6" s="11">
         <v>259.31889999999999</v>
       </c>
-      <c r="L6" s="17">
-        <v>0</v>
-      </c>
-      <c r="M6" s="18">
+      <c r="L6" s="12">
+        <v>0</v>
+      </c>
+      <c r="M6" s="13">
         <v>199.4075</v>
       </c>
-      <c r="N6" s="19">
+      <c r="N6" s="14">
         <v>1.9E-2</v>
       </c>
     </row>
     <row r="7" spans="2:14" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="8">
+      <c r="C7" s="31">
         <v>188.07339999999999</v>
       </c>
-      <c r="D7" s="9">
-        <v>0</v>
-      </c>
-      <c r="E7" s="10">
+      <c r="D7" s="4">
+        <v>0</v>
+      </c>
+      <c r="E7" s="5">
         <v>181.21780000000001</v>
       </c>
-      <c r="F7" s="11">
-        <v>0</v>
-      </c>
-      <c r="G7" s="12">
+      <c r="F7" s="6">
+        <v>0</v>
+      </c>
+      <c r="G7" s="7">
         <v>227.1258</v>
       </c>
-      <c r="H7" s="13">
-        <v>0</v>
-      </c>
-      <c r="I7" s="14">
+      <c r="H7" s="8">
+        <v>0</v>
+      </c>
+      <c r="I7" s="9">
         <v>144.71209999999999</v>
       </c>
-      <c r="J7" s="15">
-        <v>0</v>
-      </c>
-      <c r="K7" s="16">
+      <c r="J7" s="10">
+        <v>0</v>
+      </c>
+      <c r="K7" s="11">
         <v>256.09050000000002</v>
       </c>
-      <c r="L7" s="17">
-        <v>0</v>
-      </c>
-      <c r="M7" s="18">
+      <c r="L7" s="12">
+        <v>0</v>
+      </c>
+      <c r="M7" s="13">
         <v>200.18</v>
       </c>
-      <c r="N7" s="19">
+      <c r="N7" s="14">
         <v>0.13189999999999999</v>
       </c>
     </row>
     <row r="8" spans="2:14" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="8">
+      <c r="C8" s="31">
         <v>195.3571</v>
       </c>
-      <c r="D8" s="9">
+      <c r="D8" s="4">
         <v>1.1000000000000001E-3</v>
       </c>
-      <c r="E8" s="10">
+      <c r="E8" s="5">
         <v>210.65110000000001</v>
       </c>
-      <c r="F8" s="11">
+      <c r="F8" s="6">
         <v>2.9999999999999997E-4</v>
       </c>
-      <c r="G8" s="12">
+      <c r="G8" s="7">
         <v>224.29320000000001</v>
       </c>
-      <c r="H8" s="13">
-        <v>0</v>
-      </c>
-      <c r="I8" s="14">
+      <c r="H8" s="8">
+        <v>0</v>
+      </c>
+      <c r="I8" s="9">
         <v>140.75309999999999</v>
       </c>
-      <c r="J8" s="15">
-        <v>0</v>
-      </c>
-      <c r="K8" s="16">
+      <c r="J8" s="10">
+        <v>0</v>
+      </c>
+      <c r="K8" s="11">
         <v>245.7133</v>
       </c>
-      <c r="L8" s="17">
-        <v>0</v>
-      </c>
-      <c r="M8" s="18">
+      <c r="L8" s="12">
+        <v>0</v>
+      </c>
+      <c r="M8" s="13">
         <v>204.74250000000001</v>
       </c>
-      <c r="N8" s="19">
+      <c r="N8" s="14">
         <v>8.9999999999999993E-3</v>
       </c>
     </row>
     <row r="9" spans="2:14" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="8">
+      <c r="C9" s="31">
         <v>198.9042</v>
       </c>
-      <c r="D9" s="9">
+      <c r="D9" s="4">
         <v>7.4099999999999999E-2</v>
       </c>
-      <c r="E9" s="10">
+      <c r="E9" s="5">
         <v>217.14179999999999</v>
       </c>
-      <c r="F9" s="11">
-        <v>0</v>
-      </c>
-      <c r="G9" s="12">
+      <c r="F9" s="6">
+        <v>0</v>
+      </c>
+      <c r="G9" s="7">
         <v>236.85290000000001</v>
       </c>
-      <c r="H9" s="13">
-        <v>0</v>
-      </c>
-      <c r="I9" s="14">
+      <c r="H9" s="8">
+        <v>0</v>
+      </c>
+      <c r="I9" s="9">
         <v>135.22579999999999</v>
       </c>
-      <c r="J9" s="15">
-        <v>0</v>
-      </c>
-      <c r="K9" s="16">
+      <c r="J9" s="10">
+        <v>0</v>
+      </c>
+      <c r="K9" s="11">
         <v>236.28569999999999</v>
       </c>
-      <c r="L9" s="17">
-        <v>0</v>
-      </c>
-      <c r="M9" s="18">
+      <c r="L9" s="12">
+        <v>0</v>
+      </c>
+      <c r="M9" s="13">
         <v>206.51750000000001</v>
       </c>
-      <c r="N9" s="19">
+      <c r="N9" s="14">
         <v>1E-4</v>
       </c>
     </row>
     <row r="10" spans="2:14" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="8">
+      <c r="C10" s="31">
         <v>201.5607</v>
       </c>
-      <c r="D10" s="9">
+      <c r="D10" s="4">
         <v>0.6825</v>
       </c>
-      <c r="E10" s="10">
+      <c r="E10" s="5">
         <v>217.10769999999999</v>
       </c>
-      <c r="F10" s="11">
-        <v>0</v>
-      </c>
-      <c r="G10" s="12">
+      <c r="F10" s="6">
+        <v>0</v>
+      </c>
+      <c r="G10" s="7">
         <v>284.54309999999998</v>
       </c>
-      <c r="H10" s="13">
-        <v>0</v>
-      </c>
-      <c r="I10" s="14">
+      <c r="H10" s="8">
+        <v>0</v>
+      </c>
+      <c r="I10" s="9">
         <v>133.64240000000001</v>
       </c>
-      <c r="J10" s="15">
-        <v>0</v>
-      </c>
-      <c r="K10" s="16">
+      <c r="J10" s="10">
+        <v>0</v>
+      </c>
+      <c r="K10" s="11">
         <v>236.74469999999999</v>
       </c>
-      <c r="L10" s="17">
-        <v>0</v>
-      </c>
-      <c r="M10" s="18">
+      <c r="L10" s="12">
+        <v>0</v>
+      </c>
+      <c r="M10" s="13">
         <v>223.7962</v>
       </c>
-      <c r="N10" s="19">
+      <c r="N10" s="14">
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="2:14" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="8">
+      <c r="C11" s="31">
         <v>220.80279999999999</v>
       </c>
-      <c r="D11" s="9">
-        <v>0</v>
-      </c>
-      <c r="E11" s="10">
+      <c r="D11" s="4">
+        <v>0</v>
+      </c>
+      <c r="E11" s="5">
         <v>207.2953</v>
       </c>
-      <c r="F11" s="11">
-        <v>0</v>
-      </c>
-      <c r="G11" s="12">
+      <c r="F11" s="6">
+        <v>0</v>
+      </c>
+      <c r="G11" s="7">
         <v>290.41520000000003</v>
       </c>
-      <c r="H11" s="13">
-        <v>0</v>
-      </c>
-      <c r="I11" s="14">
+      <c r="H11" s="8">
+        <v>0</v>
+      </c>
+      <c r="I11" s="9">
         <v>135.928</v>
       </c>
-      <c r="J11" s="15">
-        <v>0</v>
-      </c>
-      <c r="K11" s="16">
+      <c r="J11" s="10">
+        <v>0</v>
+      </c>
+      <c r="K11" s="11">
         <v>198.57140000000001</v>
       </c>
-      <c r="L11" s="17">
+      <c r="L11" s="12">
         <v>0.75429999999999997</v>
       </c>
-      <c r="M11" s="18">
+      <c r="M11" s="13">
         <v>220.54689999999999</v>
       </c>
-      <c r="N11" s="19">
+      <c r="N11" s="14">
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="2:14" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="7" t="s">
+      <c r="B12" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="20">
+      <c r="C12" s="32">
         <v>193.4598</v>
       </c>
-      <c r="D12" s="21">
-        <v>0</v>
-      </c>
-      <c r="E12" s="22">
+      <c r="D12" s="15">
+        <v>0</v>
+      </c>
+      <c r="E12" s="16">
         <v>197.82230000000001</v>
       </c>
-      <c r="F12" s="23">
-        <v>0</v>
-      </c>
-      <c r="G12" s="24">
+      <c r="F12" s="17">
+        <v>0</v>
+      </c>
+      <c r="G12" s="18">
         <v>220.6326</v>
       </c>
-      <c r="H12" s="25">
-        <v>0</v>
-      </c>
-      <c r="I12" s="26">
+      <c r="H12" s="19">
+        <v>0</v>
+      </c>
+      <c r="I12" s="20">
         <v>146.18780000000001</v>
       </c>
-      <c r="J12" s="27">
-        <v>0</v>
-      </c>
-      <c r="K12" s="28">
+      <c r="J12" s="21">
+        <v>0</v>
+      </c>
+      <c r="K12" s="22">
         <v>224.3741</v>
       </c>
-      <c r="L12" s="29">
-        <v>0</v>
-      </c>
-      <c r="M12" s="30">
+      <c r="L12" s="23">
+        <v>0</v>
+      </c>
+      <c r="M12" s="24">
         <v>201.75909999999999</v>
       </c>
-      <c r="N12" s="31">
+      <c r="N12" s="25">
         <v>1</v>
       </c>
     </row>

--- a/Tables/Formatted/Statistics Pivot - Sample.xlsx
+++ b/Tables/Formatted/Statistics Pivot - Sample.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12885"/>
+    <workbookView xWindow="1215" yWindow="495" windowWidth="33015" windowHeight="24795"/>
   </bookViews>
   <sheets>
     <sheet name="statistics-pivot" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="24">
   <si>
     <t>1980-1984</t>
   </si>
@@ -84,19 +84,32 @@
     <t>Total p-value</t>
   </si>
   <si>
-    <t>The New England journal of medicine Word Count</t>
-  </si>
-  <si>
-    <t>The New England journal of medicine p-value</t>
+    <t>&lt;.0001</t>
+  </si>
+  <si>
+    <t>NEJM Word Count</t>
+  </si>
+  <si>
+    <t>NEJM p-value</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="19" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0000"/>
+  </numFmts>
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -236,6 +249,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="46">
     <fill>
@@ -419,6 +438,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -437,12 +462,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -491,12 +510,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="2" tint="-0.749992370372631"/>
+        <fgColor theme="4" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="19">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -674,6 +693,15 @@
     </border>
     <border>
       <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="thick">
         <color auto="1"/>
       </right>
@@ -685,178 +713,171 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thick">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="34" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="35" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="36" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="37" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="38" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="41" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="42" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="43" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="44" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="39" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="40" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="34" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="35" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="36" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="37" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="38" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="41" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="42" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="43" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="44" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="39" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="40" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="45" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="45" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="45" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="45" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="33" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="33" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="33" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="45" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="35" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="36" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="37" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="41" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="43" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="39" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="40" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="35" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="36" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="37" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="41" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="43" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="39" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="35" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="45" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="45" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="38" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="42" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="44" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="44" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="42" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="38" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="38" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="42" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="42" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="44" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="40" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="42" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="38" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="42" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="44" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="40" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1191,472 +1212,471 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:N13"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="1"/>
     <col min="2" max="2" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="11.7109375" style="3" customWidth="1"/>
-    <col min="5" max="14" width="10.7109375" style="3" customWidth="1"/>
+    <col min="3" max="4" width="11.7109375" style="2" customWidth="1"/>
+    <col min="5" max="14" width="10.7109375" style="2" customWidth="1"/>
     <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:14" s="2" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="28" t="s">
+    <row r="2" spans="2:14" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="26" t="s">
+      <c r="C2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="26" t="s">
+      <c r="D2" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E2" s="26" t="s">
+      <c r="E2" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="26" t="s">
+      <c r="F2" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="G2" s="26" t="s">
+      <c r="G2" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="H2" s="26" t="s">
+      <c r="H2" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="I2" s="26" t="s">
+      <c r="I2" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="J2" s="26" t="s">
+      <c r="J2" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="K2" s="26" t="s">
-        <v>21</v>
-      </c>
-      <c r="L2" s="26" t="s">
+      <c r="K2" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="M2" s="26" t="s">
+      <c r="L2" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="M2" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="N2" s="27" t="s">
+      <c r="N2" s="5" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="3" spans="2:14" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="29" t="s">
+      <c r="B3" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="31">
+      <c r="C3" s="7">
         <v>151.18299999999999</v>
       </c>
-      <c r="D3" s="4">
-        <v>0</v>
-      </c>
-      <c r="E3" s="5">
+      <c r="D3" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" s="9">
         <v>183.29650000000001</v>
       </c>
-      <c r="F3" s="6">
-        <v>0</v>
-      </c>
-      <c r="G3" s="7">
+      <c r="F3" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="G3" s="10">
         <v>169.31129999999999</v>
       </c>
-      <c r="H3" s="8">
-        <v>0</v>
-      </c>
-      <c r="I3" s="9">
+      <c r="H3" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="I3" s="11">
         <v>164.30770000000001</v>
       </c>
-      <c r="J3" s="10">
-        <v>0</v>
-      </c>
-      <c r="K3" s="11">
+      <c r="J3" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="K3" s="12">
         <v>183.65309999999999</v>
       </c>
-      <c r="L3" s="12">
-        <v>0</v>
+      <c r="L3" s="27" t="s">
+        <v>21</v>
       </c>
       <c r="M3" s="13">
         <v>177.9794</v>
       </c>
-      <c r="N3" s="14">
-        <v>0</v>
+      <c r="N3" s="35" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="2:14" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="29" t="s">
+      <c r="B4" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="31">
+      <c r="C4" s="7">
         <v>172.89269999999999</v>
       </c>
-      <c r="D4" s="4">
-        <v>0</v>
-      </c>
-      <c r="E4" s="5">
+      <c r="D4" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" s="9">
         <v>187.05449999999999</v>
       </c>
-      <c r="F4" s="6">
-        <v>0</v>
-      </c>
-      <c r="G4" s="7">
+      <c r="F4" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="G4" s="10">
         <v>165.80250000000001</v>
       </c>
-      <c r="H4" s="8">
-        <v>0</v>
-      </c>
-      <c r="I4" s="9">
+      <c r="H4" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="I4" s="11">
         <v>173.49289999999999</v>
       </c>
-      <c r="J4" s="10">
-        <v>0</v>
-      </c>
-      <c r="K4" s="11">
+      <c r="J4" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="K4" s="12">
         <v>228.33949999999999</v>
       </c>
-      <c r="L4" s="12">
-        <v>0</v>
+      <c r="L4" s="28">
+        <v>6.1039564906230402E-3</v>
       </c>
       <c r="M4" s="13">
         <v>194.04939999999999</v>
       </c>
-      <c r="N4" s="14">
-        <v>0</v>
+      <c r="N4" s="35" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="2:14" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="29" t="s">
+      <c r="B5" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="31">
+      <c r="C5" s="7">
         <v>194.35390000000001</v>
       </c>
-      <c r="D5" s="4">
-        <v>1E-4</v>
-      </c>
-      <c r="E5" s="5">
+      <c r="D5" s="8">
+        <v>9.4399999999999998E-2</v>
+      </c>
+      <c r="E5" s="9">
         <v>170.7029</v>
       </c>
-      <c r="F5" s="6">
-        <v>0</v>
-      </c>
-      <c r="G5" s="7">
+      <c r="F5" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="G5" s="10">
         <v>173.62260000000001</v>
       </c>
-      <c r="H5" s="8">
-        <v>0</v>
-      </c>
-      <c r="I5" s="9">
+      <c r="H5" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="I5" s="11">
         <v>155.04920000000001</v>
       </c>
-      <c r="J5" s="10">
-        <v>0</v>
-      </c>
-      <c r="K5" s="11">
+      <c r="J5" s="33">
+        <v>1.4260674051170799E-2</v>
+      </c>
+      <c r="K5" s="12">
         <v>260.70249999999999</v>
       </c>
-      <c r="L5" s="12">
-        <v>0</v>
+      <c r="L5" s="27" t="s">
+        <v>21</v>
       </c>
       <c r="M5" s="13">
         <v>188.61250000000001</v>
       </c>
-      <c r="N5" s="14">
-        <v>0</v>
+      <c r="N5" s="35" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="2:14" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="29" t="s">
+      <c r="B6" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="31">
+      <c r="C6" s="7">
         <v>193.19220000000001</v>
       </c>
-      <c r="D6" s="4">
-        <v>1E-4</v>
-      </c>
-      <c r="E6" s="5">
+      <c r="D6" s="8">
+        <v>0.2407</v>
+      </c>
+      <c r="E6" s="9">
         <v>177.24950000000001</v>
       </c>
-      <c r="F6" s="6">
-        <v>0</v>
-      </c>
-      <c r="G6" s="7">
+      <c r="F6" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="G6" s="10">
         <v>209.77979999999999</v>
       </c>
-      <c r="H6" s="8">
-        <v>0</v>
-      </c>
-      <c r="I6" s="9">
+      <c r="H6" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="I6" s="11">
         <v>136.67269999999999</v>
       </c>
-      <c r="J6" s="10">
-        <v>0</v>
-      </c>
-      <c r="K6" s="11">
+      <c r="J6" s="33">
+        <v>4.0423372315996901E-2</v>
+      </c>
+      <c r="K6" s="12">
         <v>259.31889999999999</v>
       </c>
-      <c r="L6" s="12">
-        <v>0</v>
+      <c r="L6" s="27" t="s">
+        <v>21</v>
       </c>
       <c r="M6" s="13">
         <v>199.4075</v>
       </c>
       <c r="N6" s="14">
-        <v>1.9E-2</v>
+        <v>4.41E-2</v>
       </c>
     </row>
     <row r="7" spans="2:14" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="29" t="s">
+      <c r="B7" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="31">
+      <c r="C7" s="7">
         <v>188.07339999999999</v>
       </c>
-      <c r="D7" s="4">
-        <v>0</v>
-      </c>
-      <c r="E7" s="5">
+      <c r="D7" s="8">
+        <v>0.19309999999999999</v>
+      </c>
+      <c r="E7" s="9">
         <v>181.21780000000001</v>
       </c>
-      <c r="F7" s="6">
-        <v>0</v>
-      </c>
-      <c r="G7" s="7">
+      <c r="F7" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="G7" s="10">
         <v>227.1258</v>
       </c>
-      <c r="H7" s="8">
-        <v>0</v>
-      </c>
-      <c r="I7" s="9">
+      <c r="H7" s="31">
+        <v>6.5198838934399101E-4</v>
+      </c>
+      <c r="I7" s="11">
         <v>144.71209999999999</v>
       </c>
-      <c r="J7" s="10">
-        <v>0</v>
-      </c>
-      <c r="K7" s="11">
+      <c r="J7" s="36">
+        <v>0.65038337606888297</v>
+      </c>
+      <c r="K7" s="12">
         <v>256.09050000000002</v>
       </c>
-      <c r="L7" s="12">
-        <v>0</v>
+      <c r="L7" s="27" t="s">
+        <v>21</v>
       </c>
       <c r="M7" s="13">
         <v>200.18</v>
       </c>
       <c r="N7" s="14">
-        <v>0.13189999999999999</v>
+        <v>0.1661</v>
       </c>
     </row>
     <row r="8" spans="2:14" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="29" t="s">
+      <c r="B8" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="31">
+      <c r="C8" s="7">
         <v>195.3571</v>
       </c>
-      <c r="D8" s="4">
-        <v>1.1000000000000001E-3</v>
-      </c>
-      <c r="E8" s="5">
+      <c r="D8" s="8">
+        <v>1.7299999999999999E-2</v>
+      </c>
+      <c r="E8" s="9">
         <v>210.65110000000001</v>
       </c>
-      <c r="F8" s="6">
-        <v>2.9999999999999997E-4</v>
-      </c>
-      <c r="G8" s="7">
+      <c r="F8" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="G8" s="10">
         <v>224.29320000000001</v>
       </c>
-      <c r="H8" s="8">
-        <v>0</v>
-      </c>
-      <c r="I8" s="9">
+      <c r="H8" s="30">
+        <v>0.103883242709429</v>
+      </c>
+      <c r="I8" s="11">
         <v>140.75309999999999</v>
       </c>
-      <c r="J8" s="10">
-        <v>0</v>
-      </c>
-      <c r="K8" s="11">
+      <c r="J8" s="32">
+        <v>4.5831641956677098E-2</v>
+      </c>
+      <c r="K8" s="12">
         <v>245.7133</v>
       </c>
-      <c r="L8" s="12">
-        <v>0</v>
+      <c r="L8" s="34">
+        <v>1.5827959090664999E-4</v>
       </c>
       <c r="M8" s="13">
         <v>204.74250000000001</v>
       </c>
       <c r="N8" s="14">
-        <v>8.9999999999999993E-3</v>
+        <v>1.14E-2</v>
       </c>
     </row>
     <row r="9" spans="2:14" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="29" t="s">
+      <c r="B9" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="31">
+      <c r="C9" s="7">
         <v>198.9042</v>
       </c>
-      <c r="D9" s="4">
-        <v>7.4099999999999999E-2</v>
-      </c>
-      <c r="E9" s="5">
+      <c r="D9" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9" s="9">
         <v>217.14179999999999</v>
       </c>
-      <c r="F9" s="6">
-        <v>0</v>
-      </c>
-      <c r="G9" s="7">
+      <c r="F9" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="G9" s="10">
         <v>236.85290000000001</v>
       </c>
-      <c r="H9" s="8">
-        <v>0</v>
-      </c>
-      <c r="I9" s="9">
+      <c r="H9" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="I9" s="11">
         <v>135.22579999999999</v>
       </c>
-      <c r="J9" s="10">
-        <v>0</v>
-      </c>
-      <c r="K9" s="11">
+      <c r="J9" s="29">
+        <v>2.21481449198913E-4</v>
+      </c>
+      <c r="K9" s="12">
         <v>236.28569999999999</v>
       </c>
-      <c r="L9" s="12">
-        <v>0</v>
+      <c r="L9" s="34">
+        <v>0.59297155363937704</v>
       </c>
       <c r="M9" s="13">
         <v>206.51750000000001</v>
       </c>
-      <c r="N9" s="14">
-        <v>1E-4</v>
+      <c r="N9" s="35" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="2:14" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="29" t="s">
+      <c r="B10" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="31">
+      <c r="C10" s="7">
         <v>201.5607</v>
       </c>
-      <c r="D10" s="4">
-        <v>0.6825</v>
-      </c>
-      <c r="E10" s="5">
+      <c r="D10" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10" s="9">
         <v>217.10769999999999</v>
       </c>
-      <c r="F10" s="6">
-        <v>0</v>
-      </c>
-      <c r="G10" s="7">
+      <c r="F10" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="G10" s="10">
         <v>284.54309999999998</v>
       </c>
-      <c r="H10" s="8">
-        <v>0</v>
-      </c>
-      <c r="I10" s="9">
+      <c r="H10" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="I10" s="11">
         <v>133.64240000000001</v>
       </c>
-      <c r="J10" s="10">
-        <v>0</v>
-      </c>
-      <c r="K10" s="11">
+      <c r="J10" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="K10" s="12">
         <v>236.74469999999999</v>
       </c>
-      <c r="L10" s="12">
-        <v>0</v>
+      <c r="L10" s="28">
+        <v>0.59297155363937704</v>
       </c>
       <c r="M10" s="13">
         <v>223.7962</v>
       </c>
-      <c r="N10" s="14">
-        <v>0</v>
+      <c r="N10" s="35" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="11" spans="2:14" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="29" t="s">
+      <c r="B11" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="31">
+      <c r="C11" s="7">
         <v>220.80279999999999</v>
       </c>
-      <c r="D11" s="4">
-        <v>0</v>
-      </c>
-      <c r="E11" s="5">
+      <c r="D11" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11" s="9">
         <v>207.2953</v>
       </c>
-      <c r="F11" s="6">
-        <v>0</v>
-      </c>
-      <c r="G11" s="7">
+      <c r="F11" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="G11" s="10">
         <v>290.41520000000003</v>
       </c>
-      <c r="H11" s="8">
-        <v>0</v>
-      </c>
-      <c r="I11" s="9">
+      <c r="H11" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="I11" s="11">
         <v>135.928</v>
       </c>
-      <c r="J11" s="10">
-        <v>0</v>
-      </c>
-      <c r="K11" s="11">
+      <c r="J11" s="29">
+        <v>1.5105568120887499E-3</v>
+      </c>
+      <c r="K11" s="12">
         <v>198.57140000000001</v>
       </c>
-      <c r="L11" s="12">
-        <v>0.75429999999999997</v>
+      <c r="L11" s="27" t="s">
+        <v>21</v>
       </c>
       <c r="M11" s="13">
         <v>220.54689999999999</v>
       </c>
-      <c r="N11" s="14">
-        <v>0</v>
+      <c r="N11" s="35" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="12" spans="2:14" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="30" t="s">
+      <c r="B12" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="32">
+      <c r="C12" s="15">
         <v>193.4598</v>
       </c>
-      <c r="D12" s="15">
-        <v>0</v>
-      </c>
-      <c r="E12" s="16">
+      <c r="D12" s="16">
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="E12" s="17">
         <v>197.82230000000001</v>
       </c>
-      <c r="F12" s="17">
-        <v>0</v>
+      <c r="F12" s="24">
+        <v>4.1500000000000002E-2</v>
       </c>
       <c r="G12" s="18">
         <v>220.6326</v>
       </c>
-      <c r="H12" s="19">
-        <v>0</v>
-      </c>
-      <c r="I12" s="20">
+      <c r="H12" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="I12" s="19">
         <v>146.18780000000001</v>
       </c>
-      <c r="J12" s="21">
-        <v>0</v>
-      </c>
-      <c r="K12" s="22">
+      <c r="J12" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="K12" s="20">
         <v>224.3741</v>
       </c>
-      <c r="L12" s="23">
-        <v>0</v>
-      </c>
-      <c r="M12" s="24">
+      <c r="L12" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="M12" s="21">
         <v>201.75909999999999</v>
       </c>
-      <c r="N12" s="25">
-        <v>1</v>
-      </c>
+      <c r="N12" s="40"/>
     </row>
     <row r="13" spans="2:14" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
+  <phoneticPr fontId="20" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>

--- a/Tables/Formatted/Statistics Pivot - Sample.xlsx
+++ b/Tables/Formatted/Statistics Pivot - Sample.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1215" yWindow="495" windowWidth="33015" windowHeight="24795"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12885"/>
   </bookViews>
   <sheets>
     <sheet name="statistics-pivot" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>1980-1984</t>
   </si>
@@ -82,9 +82,6 @@
   </si>
   <si>
     <t>Total p-value</t>
-  </si>
-  <si>
-    <t>&lt;.0001</t>
   </si>
   <si>
     <t>NEJM Word Count</t>
@@ -97,19 +94,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="0.0000"/>
-  </numFmts>
-  <fonts count="21" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -249,14 +236,8 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="8"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="46">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -434,42 +415,6 @@
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="1"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
@@ -486,36 +431,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.59999389629810485"/>
+        <fgColor theme="2" tint="-0.749992370372631"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF5B5B5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFADEDE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="17">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -693,191 +614,141 @@
     </border>
     <border>
       <left/>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
       <right/>
       <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
+      <bottom style="thick">
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thick">
-        <color auto="1"/>
-      </right>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
       <top style="thin">
         <color auto="1"/>
       </top>
-      <bottom style="thick">
-        <color auto="1"/>
-      </bottom>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="34" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="34" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="35" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="35" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="35" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="33" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="35" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="35" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="34" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="33" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="34" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="33" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="34" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="35" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="36" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="37" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="41" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="43" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="39" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="40" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="34" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="35" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="36" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="37" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="41" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="43" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="39" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="35" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="45" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="45" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="38" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="42" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="44" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="44" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="42" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="38" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="38" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="42" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="42" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="44" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="40" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="42" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="38" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="42" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="44" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="40" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1212,471 +1083,472 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:N13"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="X12" sqref="X12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="1"/>
     <col min="2" max="2" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="11.7109375" style="2" customWidth="1"/>
-    <col min="5" max="14" width="10.7109375" style="2" customWidth="1"/>
+    <col min="3" max="4" width="11.7109375" style="3" customWidth="1"/>
+    <col min="5" max="14" width="10.7109375" style="3" customWidth="1"/>
     <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:14" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="3" t="s">
+    <row r="2" spans="2:14" s="2" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="H2" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="I2" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="J2" s="4" t="s">
+      <c r="J2" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="K2" s="4" t="s">
+      <c r="K2" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="L2" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="L2" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="M2" s="4" t="s">
+      <c r="M2" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="N2" s="5" t="s">
+      <c r="N2" s="9" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="3" spans="2:14" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="7">
+      <c r="B3" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="15">
         <v>151.18299999999999</v>
       </c>
-      <c r="D3" s="22" t="s">
-        <v>21</v>
-      </c>
-      <c r="E3" s="9">
+      <c r="D3" s="13">
+        <v>0</v>
+      </c>
+      <c r="E3" s="4">
         <v>183.29650000000001</v>
       </c>
-      <c r="F3" s="23" t="s">
-        <v>21</v>
-      </c>
-      <c r="G3" s="10">
+      <c r="F3" s="13">
+        <v>0</v>
+      </c>
+      <c r="G3" s="4">
         <v>169.31129999999999</v>
       </c>
-      <c r="H3" s="25" t="s">
-        <v>21</v>
-      </c>
-      <c r="I3" s="11">
+      <c r="H3" s="13">
+        <v>0</v>
+      </c>
+      <c r="I3" s="4">
         <v>164.30770000000001</v>
       </c>
-      <c r="J3" s="26" t="s">
-        <v>21</v>
-      </c>
-      <c r="K3" s="12">
+      <c r="J3" s="13">
+        <v>0</v>
+      </c>
+      <c r="K3" s="4">
         <v>183.65309999999999</v>
       </c>
-      <c r="L3" s="27" t="s">
-        <v>21</v>
-      </c>
-      <c r="M3" s="13">
+      <c r="L3" s="13">
+        <v>0</v>
+      </c>
+      <c r="M3" s="4">
         <v>177.9794</v>
       </c>
-      <c r="N3" s="35" t="s">
-        <v>21</v>
+      <c r="N3" s="5">
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="2:14" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="7">
+      <c r="C4" s="15">
         <v>172.89269999999999</v>
       </c>
-      <c r="D4" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="E4" s="9">
+      <c r="D4" s="13">
+        <v>0</v>
+      </c>
+      <c r="E4" s="4">
         <v>187.05449999999999</v>
       </c>
-      <c r="F4" s="23" t="s">
-        <v>21</v>
-      </c>
-      <c r="G4" s="10">
+      <c r="F4" s="13">
+        <v>0</v>
+      </c>
+      <c r="G4" s="4">
         <v>165.80250000000001</v>
       </c>
-      <c r="H4" s="25" t="s">
-        <v>21</v>
-      </c>
-      <c r="I4" s="11">
+      <c r="H4" s="13">
+        <v>0</v>
+      </c>
+      <c r="I4" s="4">
         <v>173.49289999999999</v>
       </c>
-      <c r="J4" s="26" t="s">
-        <v>21</v>
-      </c>
-      <c r="K4" s="12">
+      <c r="J4" s="13">
+        <v>0</v>
+      </c>
+      <c r="K4" s="4">
         <v>228.33949999999999</v>
       </c>
-      <c r="L4" s="28">
-        <v>6.1039564906230402E-3</v>
-      </c>
-      <c r="M4" s="13">
+      <c r="L4" s="13">
+        <v>0</v>
+      </c>
+      <c r="M4" s="4">
         <v>194.04939999999999</v>
       </c>
-      <c r="N4" s="35" t="s">
-        <v>21</v>
+      <c r="N4" s="5">
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="2:14" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="7">
+      <c r="C5" s="15">
         <v>194.35390000000001</v>
       </c>
-      <c r="D5" s="8">
-        <v>9.4399999999999998E-2</v>
-      </c>
-      <c r="E5" s="9">
+      <c r="D5" s="13">
+        <v>1E-4</v>
+      </c>
+      <c r="E5" s="4">
         <v>170.7029</v>
       </c>
-      <c r="F5" s="23" t="s">
-        <v>21</v>
-      </c>
-      <c r="G5" s="10">
+      <c r="F5" s="13">
+        <v>0</v>
+      </c>
+      <c r="G5" s="4">
         <v>173.62260000000001</v>
       </c>
-      <c r="H5" s="25" t="s">
-        <v>21</v>
-      </c>
-      <c r="I5" s="11">
+      <c r="H5" s="13">
+        <v>0</v>
+      </c>
+      <c r="I5" s="4">
         <v>155.04920000000001</v>
       </c>
-      <c r="J5" s="33">
-        <v>1.4260674051170799E-2</v>
-      </c>
-      <c r="K5" s="12">
+      <c r="J5" s="13">
+        <v>0</v>
+      </c>
+      <c r="K5" s="4">
         <v>260.70249999999999</v>
       </c>
-      <c r="L5" s="27" t="s">
-        <v>21</v>
-      </c>
-      <c r="M5" s="13">
+      <c r="L5" s="13">
+        <v>0</v>
+      </c>
+      <c r="M5" s="4">
         <v>188.61250000000001</v>
       </c>
-      <c r="N5" s="35" t="s">
-        <v>21</v>
+      <c r="N5" s="5">
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="2:14" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="7">
+      <c r="C6" s="15">
         <v>193.19220000000001</v>
       </c>
-      <c r="D6" s="8">
-        <v>0.2407</v>
-      </c>
-      <c r="E6" s="9">
+      <c r="D6" s="13">
+        <v>1E-4</v>
+      </c>
+      <c r="E6" s="4">
         <v>177.24950000000001</v>
       </c>
-      <c r="F6" s="23" t="s">
-        <v>21</v>
-      </c>
-      <c r="G6" s="10">
+      <c r="F6" s="13">
+        <v>0</v>
+      </c>
+      <c r="G6" s="4">
         <v>209.77979999999999</v>
       </c>
-      <c r="H6" s="25" t="s">
-        <v>21</v>
-      </c>
-      <c r="I6" s="11">
+      <c r="H6" s="13">
+        <v>0</v>
+      </c>
+      <c r="I6" s="4">
         <v>136.67269999999999</v>
       </c>
-      <c r="J6" s="33">
-        <v>4.0423372315996901E-2</v>
-      </c>
-      <c r="K6" s="12">
+      <c r="J6" s="13">
+        <v>0</v>
+      </c>
+      <c r="K6" s="4">
         <v>259.31889999999999</v>
       </c>
-      <c r="L6" s="27" t="s">
-        <v>21</v>
-      </c>
-      <c r="M6" s="13">
+      <c r="L6" s="13">
+        <v>0</v>
+      </c>
+      <c r="M6" s="4">
         <v>199.4075</v>
       </c>
-      <c r="N6" s="14">
-        <v>4.41E-2</v>
+      <c r="N6" s="5">
+        <v>1.9E-2</v>
       </c>
     </row>
     <row r="7" spans="2:14" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="7">
+      <c r="C7" s="15">
         <v>188.07339999999999</v>
       </c>
-      <c r="D7" s="8">
-        <v>0.19309999999999999</v>
-      </c>
-      <c r="E7" s="9">
+      <c r="D7" s="13">
+        <v>0</v>
+      </c>
+      <c r="E7" s="4">
         <v>181.21780000000001</v>
       </c>
-      <c r="F7" s="23" t="s">
-        <v>21</v>
-      </c>
-      <c r="G7" s="10">
+      <c r="F7" s="13">
+        <v>0</v>
+      </c>
+      <c r="G7" s="4">
         <v>227.1258</v>
       </c>
-      <c r="H7" s="31">
-        <v>6.5198838934399101E-4</v>
-      </c>
-      <c r="I7" s="11">
+      <c r="H7" s="13">
+        <v>0</v>
+      </c>
+      <c r="I7" s="4">
         <v>144.71209999999999</v>
       </c>
-      <c r="J7" s="36">
-        <v>0.65038337606888297</v>
-      </c>
-      <c r="K7" s="12">
+      <c r="J7" s="13">
+        <v>0</v>
+      </c>
+      <c r="K7" s="4">
         <v>256.09050000000002</v>
       </c>
-      <c r="L7" s="27" t="s">
-        <v>21</v>
-      </c>
-      <c r="M7" s="13">
+      <c r="L7" s="13">
+        <v>0</v>
+      </c>
+      <c r="M7" s="4">
         <v>200.18</v>
       </c>
-      <c r="N7" s="14">
-        <v>0.1661</v>
+      <c r="N7" s="5">
+        <v>0.13189999999999999</v>
       </c>
     </row>
     <row r="8" spans="2:14" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="7">
+      <c r="C8" s="15">
         <v>195.3571</v>
       </c>
-      <c r="D8" s="8">
-        <v>1.7299999999999999E-2</v>
-      </c>
-      <c r="E8" s="9">
+      <c r="D8" s="13">
+        <v>1.1000000000000001E-3</v>
+      </c>
+      <c r="E8" s="4">
         <v>210.65110000000001</v>
       </c>
-      <c r="F8" s="23" t="s">
-        <v>21</v>
-      </c>
-      <c r="G8" s="10">
+      <c r="F8" s="13">
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="G8" s="4">
         <v>224.29320000000001</v>
       </c>
-      <c r="H8" s="30">
-        <v>0.103883242709429</v>
-      </c>
-      <c r="I8" s="11">
+      <c r="H8" s="13">
+        <v>0</v>
+      </c>
+      <c r="I8" s="4">
         <v>140.75309999999999</v>
       </c>
-      <c r="J8" s="32">
-        <v>4.5831641956677098E-2</v>
-      </c>
-      <c r="K8" s="12">
+      <c r="J8" s="13">
+        <v>0</v>
+      </c>
+      <c r="K8" s="4">
         <v>245.7133</v>
       </c>
-      <c r="L8" s="34">
-        <v>1.5827959090664999E-4</v>
-      </c>
-      <c r="M8" s="13">
+      <c r="L8" s="13">
+        <v>0</v>
+      </c>
+      <c r="M8" s="4">
         <v>204.74250000000001</v>
       </c>
-      <c r="N8" s="14">
-        <v>1.14E-2</v>
+      <c r="N8" s="5">
+        <v>8.9999999999999993E-3</v>
       </c>
     </row>
     <row r="9" spans="2:14" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="7">
+      <c r="C9" s="15">
         <v>198.9042</v>
       </c>
-      <c r="D9" s="22" t="s">
-        <v>21</v>
-      </c>
-      <c r="E9" s="9">
+      <c r="D9" s="13">
+        <v>7.4099999999999999E-2</v>
+      </c>
+      <c r="E9" s="4">
         <v>217.14179999999999</v>
       </c>
-      <c r="F9" s="23" t="s">
-        <v>21</v>
-      </c>
-      <c r="G9" s="10">
+      <c r="F9" s="13">
+        <v>0</v>
+      </c>
+      <c r="G9" s="4">
         <v>236.85290000000001</v>
       </c>
-      <c r="H9" s="25" t="s">
-        <v>21</v>
-      </c>
-      <c r="I9" s="11">
+      <c r="H9" s="13">
+        <v>0</v>
+      </c>
+      <c r="I9" s="4">
         <v>135.22579999999999</v>
       </c>
-      <c r="J9" s="29">
-        <v>2.21481449198913E-4</v>
-      </c>
-      <c r="K9" s="12">
+      <c r="J9" s="13">
+        <v>0</v>
+      </c>
+      <c r="K9" s="4">
         <v>236.28569999999999</v>
       </c>
-      <c r="L9" s="34">
-        <v>0.59297155363937704</v>
-      </c>
-      <c r="M9" s="13">
+      <c r="L9" s="13">
+        <v>0</v>
+      </c>
+      <c r="M9" s="4">
         <v>206.51750000000001</v>
       </c>
-      <c r="N9" s="35" t="s">
-        <v>21</v>
+      <c r="N9" s="5">
+        <v>1E-4</v>
       </c>
     </row>
     <row r="10" spans="2:14" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="7">
+      <c r="C10" s="15">
         <v>201.5607</v>
       </c>
-      <c r="D10" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="E10" s="9">
+      <c r="D10" s="13">
+        <v>0.6825</v>
+      </c>
+      <c r="E10" s="4">
         <v>217.10769999999999</v>
       </c>
-      <c r="F10" s="23" t="s">
-        <v>21</v>
-      </c>
-      <c r="G10" s="10">
+      <c r="F10" s="13">
+        <v>0</v>
+      </c>
+      <c r="G10" s="4">
         <v>284.54309999999998</v>
       </c>
-      <c r="H10" s="25" t="s">
-        <v>21</v>
-      </c>
-      <c r="I10" s="11">
+      <c r="H10" s="13">
+        <v>0</v>
+      </c>
+      <c r="I10" s="4">
         <v>133.64240000000001</v>
       </c>
-      <c r="J10" s="26" t="s">
-        <v>21</v>
-      </c>
-      <c r="K10" s="12">
+      <c r="J10" s="13">
+        <v>0</v>
+      </c>
+      <c r="K10" s="4">
         <v>236.74469999999999</v>
       </c>
-      <c r="L10" s="28">
-        <v>0.59297155363937704</v>
-      </c>
-      <c r="M10" s="13">
+      <c r="L10" s="13">
+        <v>0</v>
+      </c>
+      <c r="M10" s="4">
         <v>223.7962</v>
       </c>
-      <c r="N10" s="35" t="s">
-        <v>21</v>
+      <c r="N10" s="5">
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="2:14" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="7">
+      <c r="C11" s="15">
         <v>220.80279999999999</v>
       </c>
-      <c r="D11" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="E11" s="9">
+      <c r="D11" s="13">
+        <v>0</v>
+      </c>
+      <c r="E11" s="4">
         <v>207.2953</v>
       </c>
-      <c r="F11" s="23" t="s">
-        <v>21</v>
-      </c>
-      <c r="G11" s="10">
+      <c r="F11" s="13">
+        <v>0</v>
+      </c>
+      <c r="G11" s="4">
         <v>290.41520000000003</v>
       </c>
-      <c r="H11" s="25" t="s">
-        <v>21</v>
-      </c>
-      <c r="I11" s="11">
+      <c r="H11" s="13">
+        <v>0</v>
+      </c>
+      <c r="I11" s="4">
         <v>135.928</v>
       </c>
-      <c r="J11" s="29">
-        <v>1.5105568120887499E-3</v>
-      </c>
-      <c r="K11" s="12">
+      <c r="J11" s="13">
+        <v>0</v>
+      </c>
+      <c r="K11" s="4">
         <v>198.57140000000001</v>
       </c>
-      <c r="L11" s="27" t="s">
-        <v>21</v>
-      </c>
-      <c r="M11" s="13">
+      <c r="L11" s="13">
+        <v>0.75429999999999997</v>
+      </c>
+      <c r="M11" s="4">
         <v>220.54689999999999</v>
       </c>
-      <c r="N11" s="35" t="s">
-        <v>21</v>
+      <c r="N11" s="5">
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="2:14" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="15">
+      <c r="C12" s="16">
         <v>193.4598</v>
       </c>
-      <c r="D12" s="16">
-        <v>2.9999999999999997E-4</v>
-      </c>
-      <c r="E12" s="17">
+      <c r="D12" s="14">
+        <v>0</v>
+      </c>
+      <c r="E12" s="6">
         <v>197.82230000000001</v>
       </c>
-      <c r="F12" s="24">
-        <v>4.1500000000000002E-2</v>
-      </c>
-      <c r="G12" s="18">
+      <c r="F12" s="14">
+        <v>0</v>
+      </c>
+      <c r="G12" s="6">
         <v>220.6326</v>
       </c>
-      <c r="H12" s="37" t="s">
-        <v>21</v>
-      </c>
-      <c r="I12" s="19">
+      <c r="H12" s="14">
+        <v>0</v>
+      </c>
+      <c r="I12" s="6">
         <v>146.18780000000001</v>
       </c>
-      <c r="J12" s="38" t="s">
-        <v>21</v>
-      </c>
-      <c r="K12" s="20">
+      <c r="J12" s="14">
+        <v>0</v>
+      </c>
+      <c r="K12" s="6">
         <v>224.3741</v>
       </c>
-      <c r="L12" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="M12" s="21">
+      <c r="L12" s="14">
+        <v>0</v>
+      </c>
+      <c r="M12" s="6">
         <v>201.75909999999999</v>
       </c>
-      <c r="N12" s="40"/>
+      <c r="N12" s="7">
+        <v>1</v>
+      </c>
     </row>
     <row r="13" spans="2:14" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <phoneticPr fontId="20" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>

--- a/Tables/Formatted/Statistics Pivot - Sample.xlsx
+++ b/Tables/Formatted/Statistics Pivot - Sample.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="24">
   <si>
     <t>1980-1984</t>
   </si>
@@ -88,6 +88,9 @@
   </si>
   <si>
     <t>NEJM p-value</t>
+  </si>
+  <si>
+    <t>&lt;.0001</t>
   </si>
 </sst>
 </file>
@@ -1084,7 +1087,7 @@
   <dimension ref="B2:N13"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="X12" sqref="X12"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1144,38 +1147,38 @@
       <c r="C3" s="15">
         <v>151.18299999999999</v>
       </c>
-      <c r="D3" s="13">
-        <v>0</v>
+      <c r="D3" s="13" t="s">
+        <v>23</v>
       </c>
       <c r="E3" s="4">
         <v>183.29650000000001</v>
       </c>
-      <c r="F3" s="13">
-        <v>0</v>
+      <c r="F3" s="13" t="s">
+        <v>23</v>
       </c>
       <c r="G3" s="4">
         <v>169.31129999999999</v>
       </c>
-      <c r="H3" s="13">
-        <v>0</v>
+      <c r="H3" s="13" t="s">
+        <v>23</v>
       </c>
       <c r="I3" s="4">
         <v>164.30770000000001</v>
       </c>
-      <c r="J3" s="13">
-        <v>0</v>
+      <c r="J3" s="13" t="s">
+        <v>23</v>
       </c>
       <c r="K3" s="4">
         <v>183.65309999999999</v>
       </c>
-      <c r="L3" s="13">
-        <v>0</v>
+      <c r="L3" s="13" t="s">
+        <v>23</v>
       </c>
       <c r="M3" s="4">
         <v>177.9794</v>
       </c>
-      <c r="N3" s="5">
-        <v>0</v>
+      <c r="N3" s="5" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="2:14" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -1185,38 +1188,38 @@
       <c r="C4" s="15">
         <v>172.89269999999999</v>
       </c>
-      <c r="D4" s="13">
-        <v>0</v>
+      <c r="D4" s="13" t="s">
+        <v>23</v>
       </c>
       <c r="E4" s="4">
         <v>187.05449999999999</v>
       </c>
-      <c r="F4" s="13">
-        <v>0</v>
+      <c r="F4" s="13" t="s">
+        <v>23</v>
       </c>
       <c r="G4" s="4">
         <v>165.80250000000001</v>
       </c>
-      <c r="H4" s="13">
-        <v>0</v>
+      <c r="H4" s="13" t="s">
+        <v>23</v>
       </c>
       <c r="I4" s="4">
         <v>173.49289999999999</v>
       </c>
-      <c r="J4" s="13">
-        <v>0</v>
+      <c r="J4" s="13" t="s">
+        <v>23</v>
       </c>
       <c r="K4" s="4">
         <v>228.33949999999999</v>
       </c>
       <c r="L4" s="13">
-        <v>0</v>
+        <v>6.1039564906230402E-3</v>
       </c>
       <c r="M4" s="4">
         <v>194.04939999999999</v>
       </c>
-      <c r="N4" s="5">
-        <v>0</v>
+      <c r="N4" s="5" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="2:14" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -1227,37 +1230,37 @@
         <v>194.35390000000001</v>
       </c>
       <c r="D5" s="13">
-        <v>1E-4</v>
+        <v>9.4399999999999998E-2</v>
       </c>
       <c r="E5" s="4">
         <v>170.7029</v>
       </c>
-      <c r="F5" s="13">
-        <v>0</v>
+      <c r="F5" s="13" t="s">
+        <v>23</v>
       </c>
       <c r="G5" s="4">
         <v>173.62260000000001</v>
       </c>
-      <c r="H5" s="13">
-        <v>0</v>
+      <c r="H5" s="13" t="s">
+        <v>23</v>
       </c>
       <c r="I5" s="4">
         <v>155.04920000000001</v>
       </c>
       <c r="J5" s="13">
-        <v>0</v>
+        <v>1.4260674051170799E-2</v>
       </c>
       <c r="K5" s="4">
         <v>260.70249999999999</v>
       </c>
-      <c r="L5" s="13">
-        <v>0</v>
+      <c r="L5" s="13" t="s">
+        <v>23</v>
       </c>
       <c r="M5" s="4">
         <v>188.61250000000001</v>
       </c>
-      <c r="N5" s="5">
-        <v>0</v>
+      <c r="N5" s="5" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="2:14" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -1268,37 +1271,37 @@
         <v>193.19220000000001</v>
       </c>
       <c r="D6" s="13">
-        <v>1E-4</v>
+        <v>0.2407</v>
       </c>
       <c r="E6" s="4">
         <v>177.24950000000001</v>
       </c>
-      <c r="F6" s="13">
-        <v>0</v>
+      <c r="F6" s="13" t="s">
+        <v>23</v>
       </c>
       <c r="G6" s="4">
         <v>209.77979999999999</v>
       </c>
-      <c r="H6" s="13">
-        <v>0</v>
+      <c r="H6" s="13" t="s">
+        <v>23</v>
       </c>
       <c r="I6" s="4">
         <v>136.67269999999999</v>
       </c>
       <c r="J6" s="13">
-        <v>0</v>
+        <v>4.0423372315996901E-2</v>
       </c>
       <c r="K6" s="4">
         <v>259.31889999999999</v>
       </c>
-      <c r="L6" s="13">
-        <v>0</v>
+      <c r="L6" s="13" t="s">
+        <v>23</v>
       </c>
       <c r="M6" s="4">
         <v>199.4075</v>
       </c>
       <c r="N6" s="5">
-        <v>1.9E-2</v>
+        <v>4.41E-2</v>
       </c>
     </row>
     <row r="7" spans="2:14" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -1309,37 +1312,37 @@
         <v>188.07339999999999</v>
       </c>
       <c r="D7" s="13">
-        <v>0</v>
+        <v>0.19309999999999999</v>
       </c>
       <c r="E7" s="4">
         <v>181.21780000000001</v>
       </c>
-      <c r="F7" s="13">
-        <v>0</v>
+      <c r="F7" s="13" t="s">
+        <v>23</v>
       </c>
       <c r="G7" s="4">
         <v>227.1258</v>
       </c>
       <c r="H7" s="13">
-        <v>0</v>
+        <v>6.5198838934399101E-4</v>
       </c>
       <c r="I7" s="4">
         <v>144.71209999999999</v>
       </c>
       <c r="J7" s="13">
-        <v>0</v>
+        <v>0.65038337606888297</v>
       </c>
       <c r="K7" s="4">
         <v>256.09050000000002</v>
       </c>
-      <c r="L7" s="13">
-        <v>0</v>
+      <c r="L7" s="13" t="s">
+        <v>23</v>
       </c>
       <c r="M7" s="4">
         <v>200.18</v>
       </c>
       <c r="N7" s="5">
-        <v>0.13189999999999999</v>
+        <v>0.1661</v>
       </c>
     </row>
     <row r="8" spans="2:14" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -1350,37 +1353,37 @@
         <v>195.3571</v>
       </c>
       <c r="D8" s="13">
-        <v>1.1000000000000001E-3</v>
+        <v>1.7299999999999999E-2</v>
       </c>
       <c r="E8" s="4">
         <v>210.65110000000001</v>
       </c>
-      <c r="F8" s="13">
-        <v>2.9999999999999997E-4</v>
+      <c r="F8" s="13" t="s">
+        <v>23</v>
       </c>
       <c r="G8" s="4">
         <v>224.29320000000001</v>
       </c>
       <c r="H8" s="13">
-        <v>0</v>
+        <v>0.103883242709429</v>
       </c>
       <c r="I8" s="4">
         <v>140.75309999999999</v>
       </c>
       <c r="J8" s="13">
-        <v>0</v>
+        <v>4.5831641956677098E-2</v>
       </c>
       <c r="K8" s="4">
         <v>245.7133</v>
       </c>
       <c r="L8" s="13">
-        <v>0</v>
+        <v>1.5827959090664999E-4</v>
       </c>
       <c r="M8" s="4">
         <v>204.74250000000001</v>
       </c>
       <c r="N8" s="5">
-        <v>8.9999999999999993E-3</v>
+        <v>1.14E-2</v>
       </c>
     </row>
     <row r="9" spans="2:14" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -1390,38 +1393,38 @@
       <c r="C9" s="15">
         <v>198.9042</v>
       </c>
-      <c r="D9" s="13">
-        <v>7.4099999999999999E-2</v>
+      <c r="D9" s="13" t="s">
+        <v>23</v>
       </c>
       <c r="E9" s="4">
         <v>217.14179999999999</v>
       </c>
-      <c r="F9" s="13">
-        <v>0</v>
+      <c r="F9" s="13" t="s">
+        <v>23</v>
       </c>
       <c r="G9" s="4">
         <v>236.85290000000001</v>
       </c>
-      <c r="H9" s="13">
-        <v>0</v>
+      <c r="H9" s="13" t="s">
+        <v>23</v>
       </c>
       <c r="I9" s="4">
         <v>135.22579999999999</v>
       </c>
       <c r="J9" s="13">
-        <v>0</v>
+        <v>2.21481449198913E-4</v>
       </c>
       <c r="K9" s="4">
         <v>236.28569999999999</v>
       </c>
       <c r="L9" s="13">
-        <v>0</v>
+        <v>0.59297155363937704</v>
       </c>
       <c r="M9" s="4">
         <v>206.51750000000001</v>
       </c>
-      <c r="N9" s="5">
-        <v>1E-4</v>
+      <c r="N9" s="5" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="2:14" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -1431,38 +1434,38 @@
       <c r="C10" s="15">
         <v>201.5607</v>
       </c>
-      <c r="D10" s="13">
-        <v>0.6825</v>
+      <c r="D10" s="13" t="s">
+        <v>23</v>
       </c>
       <c r="E10" s="4">
         <v>217.10769999999999</v>
       </c>
-      <c r="F10" s="13">
-        <v>0</v>
+      <c r="F10" s="13" t="s">
+        <v>23</v>
       </c>
       <c r="G10" s="4">
         <v>284.54309999999998</v>
       </c>
-      <c r="H10" s="13">
-        <v>0</v>
+      <c r="H10" s="13" t="s">
+        <v>23</v>
       </c>
       <c r="I10" s="4">
         <v>133.64240000000001</v>
       </c>
-      <c r="J10" s="13">
-        <v>0</v>
+      <c r="J10" s="13" t="s">
+        <v>23</v>
       </c>
       <c r="K10" s="4">
         <v>236.74469999999999</v>
       </c>
       <c r="L10" s="13">
-        <v>0</v>
+        <v>0.59297155363937704</v>
       </c>
       <c r="M10" s="4">
         <v>223.7962</v>
       </c>
-      <c r="N10" s="5">
-        <v>0</v>
+      <c r="N10" s="5" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="11" spans="2:14" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -1472,38 +1475,38 @@
       <c r="C11" s="15">
         <v>220.80279999999999</v>
       </c>
-      <c r="D11" s="13">
-        <v>0</v>
+      <c r="D11" s="13" t="s">
+        <v>23</v>
       </c>
       <c r="E11" s="4">
         <v>207.2953</v>
       </c>
-      <c r="F11" s="13">
-        <v>0</v>
+      <c r="F11" s="13" t="s">
+        <v>23</v>
       </c>
       <c r="G11" s="4">
         <v>290.41520000000003</v>
       </c>
-      <c r="H11" s="13">
-        <v>0</v>
+      <c r="H11" s="13" t="s">
+        <v>23</v>
       </c>
       <c r="I11" s="4">
         <v>135.928</v>
       </c>
       <c r="J11" s="13">
-        <v>0</v>
+        <v>1.5105568120887499E-3</v>
       </c>
       <c r="K11" s="4">
         <v>198.57140000000001</v>
       </c>
-      <c r="L11" s="13">
-        <v>0.75429999999999997</v>
+      <c r="L11" s="13" t="s">
+        <v>23</v>
       </c>
       <c r="M11" s="4">
         <v>220.54689999999999</v>
       </c>
-      <c r="N11" s="5">
-        <v>0</v>
+      <c r="N11" s="5" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="2:14" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1514,38 +1517,36 @@
         <v>193.4598</v>
       </c>
       <c r="D12" s="14">
-        <v>0</v>
+        <v>2.9999999999999997E-4</v>
       </c>
       <c r="E12" s="6">
         <v>197.82230000000001</v>
       </c>
       <c r="F12" s="14">
-        <v>0</v>
+        <v>4.1500000000000002E-2</v>
       </c>
       <c r="G12" s="6">
         <v>220.6326</v>
       </c>
-      <c r="H12" s="14">
-        <v>0</v>
+      <c r="H12" s="14" t="s">
+        <v>23</v>
       </c>
       <c r="I12" s="6">
         <v>146.18780000000001</v>
       </c>
-      <c r="J12" s="14">
-        <v>0</v>
+      <c r="J12" s="14" t="s">
+        <v>23</v>
       </c>
       <c r="K12" s="6">
         <v>224.3741</v>
       </c>
-      <c r="L12" s="14">
-        <v>0</v>
+      <c r="L12" s="14" t="s">
+        <v>23</v>
       </c>
       <c r="M12" s="6">
         <v>201.75909999999999</v>
       </c>
-      <c r="N12" s="7">
-        <v>1</v>
-      </c>
+      <c r="N12" s="7"/>
     </row>
     <row r="13" spans="2:14" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
